--- a/medicine/Sexualité et sexologie/Boules_bleues/Boules_bleues.xlsx
+++ b/medicine/Sexualité et sexologie/Boules_bleues/Boules_bleues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les boules bleues (ou blueballs en anglais) est un terme d'argot[1] qui désigne la congestion temporaire des testicules accompagnée de douleur testiculaire[2] qui serait causée par une excitation sexuelle prolongée sans éjaculation[3]. Le terme serait apparu aux États-Unis en 1916[4]. Certains urologues appellent cet état hypertension épididymale. Cette sensation n'est pas vécue par tous les hommes[5]
-Bien que le sujet soit largement discuté, il y a très peu d'information dans la littérature médicale[6] jusqu'à l'article de Chalett et Nerenberg dans Pediatrics 2000, qui a trouvé quelques données à propos de cette sensation et qui conclut que « le traitement est la délivrance sexuelle »[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les boules bleues (ou blueballs en anglais) est un terme d'argot qui désigne la congestion temporaire des testicules accompagnée de douleur testiculaire qui serait causée par une excitation sexuelle prolongée sans éjaculation. Le terme serait apparu aux États-Unis en 1916. Certains urologues appellent cet état hypertension épididymale. Cette sensation n'est pas vécue par tous les hommes
+Bien que le sujet soit largement discuté, il y a très peu d'information dans la littérature médicale jusqu'à l'article de Chalett et Nerenberg dans Pediatrics 2000, qui a trouvé quelques données à propos de cette sensation et qui conclut que « le traitement est la délivrance sexuelle ».
 </t>
         </is>
       </c>
